--- a/data/output/1_SLR_parsing_table.xlsx
+++ b/data/output/1_SLR_parsing_table.xlsx
@@ -3498,8 +3498,8 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>Expr_Arith -&gt; Expr_Term · 
-Expr_Term -&gt; Expr_Term · * Expr_Unary 
-Expr_Term -&gt; Expr_Term · / Expr_Unary</t>
+Expr_Term -&gt; Expr_Term · / Expr_Unary 
+Expr_Term -&gt; Expr_Term · * Expr_Unary</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3774,8 +3774,8 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>Loc -&gt; Loc · [ Expr ] 
-Expr_Unary -&gt; Loc · 
-Expr_Assign -&gt; Loc · = Expr</t>
+Expr_Assign -&gt; Loc · = Expr 
+Expr_Unary -&gt; Loc ·</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4331,8 +4331,8 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Expr_Unary -&gt; ( · Expr ) 
-Expr_Unary -&gt; ( · Basic ) Expr_Unary 
+          <t>Expr_Unary -&gt; ( · Basic ) Expr_Unary 
+Expr_Unary -&gt; ( · Expr ) 
 Basic -&gt; · float 
 Basic -&gt; · int 
 Basic -&gt; · long 
@@ -5083,8 +5083,8 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>Loc -&gt; id · [ Expr ] 
-Expr_Assign -&gt; id · = Expr 
-Expr_Unary -&gt; id ·</t>
+Expr_Unary -&gt; id · 
+Expr_Assign -&gt; id · = Expr</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5229,8 +5229,8 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stmt_Open -&gt; if · ( Bool ) M Stmt 
-Stmt_Closed -&gt; if · ( Bool ) M Stmt_Closed N else M Stmt_Closed 
+          <t>Stmt_Closed -&gt; if · ( Bool ) M Stmt_Closed N else M Stmt_Closed 
+Stmt_Open -&gt; if · ( Bool ) M Stmt 
 Stmt_Open -&gt; if · ( Bool ) M Stmt_Closed N else M Stmt_Open</t>
         </is>
       </c>
@@ -6976,8 +6976,8 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Expr_Unary -&gt; Loc · 
-Loc -&gt; Loc · [ Expr ]</t>
+          <t>Loc -&gt; Loc · [ Expr ] 
+Expr_Unary -&gt; Loc ·</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8291,9 +8291,9 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Stmt_Open -&gt; if ( · Bool ) M Stmt 
+          <t>Stmt_Open -&gt; if ( · Bool ) M Stmt_Closed N else M Stmt_Open 
 Stmt_Closed -&gt; if ( · Bool ) M Stmt_Closed N else M Stmt_Closed 
-Stmt_Open -&gt; if ( · Bool ) M Stmt_Closed N else M Stmt_Open 
+Stmt_Open -&gt; if ( · Bool ) M Stmt 
 Bool -&gt; · Bool || L Bool_Join 
 Bool -&gt; · Bool_Join 
 Bool_Join -&gt; · Bool_Join &amp;&amp; K Bool_Unary 
@@ -8621,9 +8621,9 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Expr_Term -&gt; Expr_Term · * Expr_Unary 
+          <t>Expr_Arith -&gt; Expr_Arith + Expr_Term · 
 Expr_Term -&gt; Expr_Term · / Expr_Unary 
-Expr_Arith -&gt; Expr_Arith + Expr_Term ·</t>
+Expr_Term -&gt; Expr_Term · * Expr_Unary</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8760,9 +8760,9 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Expr_Term -&gt; Expr_Term · * Expr_Unary 
+          <t>Expr_Arith -&gt; Expr_Arith - Expr_Term · 
 Expr_Term -&gt; Expr_Term · / Expr_Unary 
-Expr_Arith -&gt; Expr_Arith - Expr_Term ·</t>
+Expr_Term -&gt; Expr_Term · * Expr_Unary</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9695,8 +9695,8 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Stmt_Open -&gt; for ( Expr · ; M Bool ; M Expr N ) M Stmt_Open 
-Stmt_Closed -&gt; for ( Expr · ; M Bool ; M Expr N ) M Stmt_Closed</t>
+          <t>Stmt_Closed -&gt; for ( Expr · ; M Bool ; M Expr N ) M Stmt_Closed 
+Stmt_Open -&gt; for ( Expr · ; M Bool ; M Expr N ) M Stmt_Open</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9971,10 +9971,10 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Stmt_Open -&gt; if ( Bool · ) M Stmt_Closed N else M Stmt_Open 
-Stmt_Closed -&gt; if ( Bool · ) M Stmt_Closed N else M Stmt_Closed 
+          <t>Bool -&gt; Bool · || L Bool_Join 
 Stmt_Open -&gt; if ( Bool · ) M Stmt 
-Bool -&gt; Bool · || L Bool_Join</t>
+Stmt_Open -&gt; if ( Bool · ) M Stmt_Closed N else M Stmt_Open 
+Stmt_Closed -&gt; if ( Bool · ) M Stmt_Closed N else M Stmt_Closed</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10498,9 +10498,9 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Bool_Unary -&gt; ( · Bool ) 
-Expr_Unary -&gt; ( · Expr ) 
+          <t>Expr_Unary -&gt; ( · Expr ) 
 Expr_Unary -&gt; ( · Basic ) Expr_Unary 
+Bool_Unary -&gt; ( · Bool ) 
 Bool -&gt; · Bool || L Bool_Join 
 Bool -&gt; · Bool_Join 
 Basic -&gt; · float 
@@ -11745,8 +11745,8 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Stmt_Closed -&gt; if ( Bool ) · M Stmt_Closed N else M Stmt_Closed 
-Stmt_Open -&gt; if ( Bool ) · M Stmt_Closed N else M Stmt_Open 
+          <t>Stmt_Open -&gt; if ( Bool ) · M Stmt_Closed N else M Stmt_Open 
+Stmt_Closed -&gt; if ( Bool ) · M Stmt_Closed N else M Stmt_Closed 
 Stmt_Open -&gt; if ( Bool ) · M Stmt 
 M -&gt; ·</t>
         </is>
@@ -12888,8 +12888,8 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Bool -&gt; Bool · || L Bool_Join 
-Bool_Unary -&gt; ( Bool · )</t>
+          <t>Bool_Unary -&gt; ( Bool · ) 
+Bool -&gt; Bool · || L Bool_Join</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -13082,9 +13082,9 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Stmt_Open -&gt; while M ( Bool · ) M Stmt_Open 
+          <t>Bool -&gt; Bool · || L Bool_Join 
 Stmt_Closed -&gt; while M ( Bool · ) M Stmt_Closed 
-Bool -&gt; Bool · || L Bool_Join</t>
+Stmt_Open -&gt; while M ( Bool · ) M Stmt_Open</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -13242,8 +13242,8 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Stmt_Closed -&gt; for ( Expr ; M · Bool ; M Expr N ) M Stmt_Closed 
-Stmt_Open -&gt; for ( Expr ; M · Bool ; M Expr N ) M Stmt_Open 
+          <t>Stmt_Open -&gt; for ( Expr ; M · Bool ; M Expr N ) M Stmt_Open 
+Stmt_Closed -&gt; for ( Expr ; M · Bool ; M Expr N ) M Stmt_Closed 
 Bool -&gt; · Bool || L Bool_Join 
 Bool -&gt; · Bool_Join 
 Bool_Join -&gt; · Bool_Join &amp;&amp; K Bool_Unary 
@@ -14415,9 +14415,9 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Stmt_Open -&gt; for ( Expr ; M Bool · ; M Expr N ) M Stmt_Open 
+          <t>Stmt_Closed -&gt; for ( Expr ; M Bool · ; M Expr N ) M Stmt_Closed 
 Bool -&gt; Bool · || L Bool_Join 
-Stmt_Closed -&gt; for ( Expr ; M Bool · ; M Expr N ) M Stmt_Closed</t>
+Stmt_Open -&gt; for ( Expr ; M Bool · ; M Expr N ) M Stmt_Open</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -14635,8 +14635,8 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Stmt_Closed -&gt; if ( Bool ) M Stmt_Closed · N else M Stmt_Closed 
-Stmt_Open -&gt; if ( Bool ) M Stmt_Closed · N else M Stmt_Open 
+          <t>Stmt_Open -&gt; if ( Bool ) M Stmt_Closed · N else M Stmt_Open 
+Stmt_Closed -&gt; if ( Bool ) M Stmt_Closed · N else M Stmt_Closed 
 Stmt -&gt; Stmt_Closed · 
 N -&gt; ·</t>
         </is>
@@ -15156,8 +15156,8 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Stmt_Closed -&gt; do M Stmt while M ( Bool · ) ; 
-Bool -&gt; Bool · || L Bool_Join</t>
+          <t>Bool -&gt; Bool · || L Bool_Join 
+Stmt_Closed -&gt; do M Stmt while M ( Bool · ) ;</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -15238,8 +15238,8 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Stmt_Closed -&gt; for ( Expr ; M Bool ; · M Expr N ) M Stmt_Closed 
-Stmt_Open -&gt; for ( Expr ; M Bool ; · M Expr N ) M Stmt_Open 
+          <t>Stmt_Open -&gt; for ( Expr ; M Bool ; · M Expr N ) M Stmt_Open 
+Stmt_Closed -&gt; for ( Expr ; M Bool ; · M Expr N ) M Stmt_Closed 
 M -&gt; ·</t>
         </is>
       </c>
@@ -15377,8 +15377,8 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Stmt_Closed -&gt; if ( Bool ) M Stmt_Closed N · else M Stmt_Closed 
-Stmt_Open -&gt; if ( Bool ) M Stmt_Closed N · else M Stmt_Open</t>
+          <t>Stmt_Open -&gt; if ( Bool ) M Stmt_Closed N · else M Stmt_Open 
+Stmt_Closed -&gt; if ( Bool ) M Stmt_Closed N · else M Stmt_Closed</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -16235,8 +16235,8 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Stmt_Closed -&gt; for ( Expr ; M Bool ; M Expr · N ) M Stmt_Closed 
-Stmt_Open -&gt; for ( Expr ; M Bool ; M Expr · N ) M Stmt_Open 
+          <t>Stmt_Open -&gt; for ( Expr ; M Bool ; M Expr · N ) M Stmt_Open 
+Stmt_Closed -&gt; for ( Expr ; M Bool ; M Expr · N ) M Stmt_Closed 
 N -&gt; ·</t>
         </is>
       </c>
@@ -16322,8 +16322,8 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Stmt_Open -&gt; if ( Bool ) M Stmt_Closed N else M · Stmt_Open 
-Stmt_Closed -&gt; if ( Bool ) M Stmt_Closed N else M · Stmt_Closed 
+          <t>Stmt_Closed -&gt; if ( Bool ) M Stmt_Closed N else M · Stmt_Closed 
+Stmt_Open -&gt; if ( Bool ) M Stmt_Closed N else M · Stmt_Open 
 Stmt_Open -&gt; · if ( Bool ) M Stmt 
 Stmt_Open -&gt; · if ( Bool ) M Stmt_Closed N else M Stmt_Open 
 Stmt_Open -&gt; · while M ( Bool ) M Stmt_Open 
@@ -16512,8 +16512,8 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Stmt_Closed -&gt; for ( Expr ; M Bool ; M Expr N · ) M Stmt_Closed 
-Stmt_Open -&gt; for ( Expr ; M Bool ; M Expr N · ) M Stmt_Open</t>
+          <t>Stmt_Open -&gt; for ( Expr ; M Bool ; M Expr N · ) M Stmt_Open 
+Stmt_Closed -&gt; for ( Expr ; M Bool ; M Expr N · ) M Stmt_Closed</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
